--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2550,7 +2550,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2793,10 +2793,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2925,13 +2921,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E204" activeCellId="0" sqref="E204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -2939,7 +2935,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="115.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5164,7 @@
       <c r="D110" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E110" s="61" t="n">
+      <c r="E110" s="16" t="n">
         <v>27372</v>
       </c>
       <c r="F110" s="55" t="s">
@@ -5179,16 +5175,16 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="62" t="s">
+      <c r="A111" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B111" s="63" t="n">
+      <c r="B111" s="62" t="n">
         <v>91108</v>
       </c>
-      <c r="C111" s="63" t="n">
+      <c r="C111" s="62" t="n">
         <v>93059</v>
       </c>
-      <c r="D111" s="64" t="n">
+      <c r="D111" s="63" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -5599,7 +5595,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="65" t="s">
+      <c r="A132" s="64" t="s">
         <v>320</v>
       </c>
       <c r="B132" s="3" t="n">
@@ -5619,7 +5615,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="65" t="s">
+      <c r="A133" s="64" t="s">
         <v>322</v>
       </c>
       <c r="B133" s="3" t="n">
@@ -5639,7 +5635,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="64" t="s">
         <v>324</v>
       </c>
       <c r="B134" s="3" t="n">
@@ -5679,7 +5675,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="64" t="s">
         <v>324</v>
       </c>
       <c r="B136" s="3" t="n">
@@ -5905,16 +5901,16 @@
       <c r="A147" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B147" s="66" t="n">
+      <c r="B147" s="65" t="n">
         <v>304</v>
       </c>
-      <c r="C147" s="66" t="n">
+      <c r="C147" s="65" t="n">
         <v>666</v>
       </c>
       <c r="D147" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="67" t="s">
+      <c r="E147" s="66" t="s">
         <v>353</v>
       </c>
       <c r="F147" s="17" t="s">
@@ -5928,10 +5924,10 @@
       <c r="A148" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B148" s="66" t="n">
+      <c r="B148" s="65" t="n">
         <v>283</v>
       </c>
-      <c r="C148" s="66" t="n">
+      <c r="C148" s="65" t="n">
         <v>311</v>
       </c>
       <c r="D148" s="37" t="n">
@@ -5951,10 +5947,10 @@
       <c r="A149" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B149" s="66" t="n">
+      <c r="B149" s="65" t="n">
         <v>28244</v>
       </c>
-      <c r="C149" s="66" t="n">
+      <c r="C149" s="65" t="n">
         <v>28648</v>
       </c>
       <c r="D149" s="26" t="n">
@@ -5971,10 +5967,10 @@
       <c r="A150" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="B150" s="66" t="n">
+      <c r="B150" s="65" t="n">
         <v>38322</v>
       </c>
-      <c r="C150" s="66" t="n">
+      <c r="C150" s="65" t="n">
         <v>38683</v>
       </c>
       <c r="D150" s="26" t="n">
@@ -5991,10 +5987,10 @@
       <c r="A151" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B151" s="66" t="n">
+      <c r="B151" s="65" t="n">
         <v>34057</v>
       </c>
-      <c r="C151" s="66" t="n">
+      <c r="C151" s="65" t="n">
         <v>34671</v>
       </c>
       <c r="D151" s="26" t="n">
@@ -6011,10 +6007,10 @@
       <c r="A152" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B152" s="66" t="n">
+      <c r="B152" s="65" t="n">
         <v>23350</v>
       </c>
-      <c r="C152" s="66" t="n">
+      <c r="C152" s="65" t="n">
         <v>23641</v>
       </c>
       <c r="D152" s="26" t="n">
@@ -6031,10 +6027,10 @@
       <c r="A153" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B153" s="66" t="n">
+      <c r="B153" s="65" t="n">
         <v>25976</v>
       </c>
-      <c r="C153" s="66" t="n">
+      <c r="C153" s="65" t="n">
         <v>26310</v>
       </c>
       <c r="D153" s="26" t="n">
@@ -6051,10 +6047,10 @@
       <c r="A154" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="B154" s="66" t="n">
+      <c r="B154" s="65" t="n">
         <v>23356</v>
       </c>
-      <c r="C154" s="66" t="n">
+      <c r="C154" s="65" t="n">
         <v>23771</v>
       </c>
       <c r="D154" s="26" t="n">
@@ -6071,10 +6067,10 @@
       <c r="A155" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B155" s="66" t="n">
+      <c r="B155" s="65" t="n">
         <v>62872</v>
       </c>
-      <c r="C155" s="66" t="n">
+      <c r="C155" s="65" t="n">
         <v>63384</v>
       </c>
       <c r="D155" s="26" t="n">
@@ -6091,10 +6087,10 @@
       <c r="A156" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="B156" s="66" t="n">
+      <c r="B156" s="65" t="n">
         <v>15065</v>
       </c>
-      <c r="C156" s="66" t="n">
+      <c r="C156" s="65" t="n">
         <v>15247</v>
       </c>
       <c r="D156" s="26" t="n">
@@ -6108,13 +6104,13 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="B157" s="69" t="n">
+      <c r="B157" s="68" t="n">
         <v>50297</v>
       </c>
-      <c r="C157" s="69" t="n">
+      <c r="C157" s="68" t="n">
         <v>50865</v>
       </c>
       <c r="D157" s="26" t="n">
@@ -6131,10 +6127,10 @@
       <c r="A158" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="B158" s="66" t="n">
+      <c r="B158" s="65" t="n">
         <v>42066</v>
       </c>
-      <c r="C158" s="66" t="n">
+      <c r="C158" s="65" t="n">
         <v>42066</v>
       </c>
       <c r="D158" s="26" t="n">
@@ -6151,10 +6147,10 @@
       <c r="A159" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B159" s="66" t="n">
+      <c r="B159" s="65" t="n">
         <v>802</v>
       </c>
-      <c r="C159" s="66" t="n">
+      <c r="C159" s="65" t="n">
         <v>911</v>
       </c>
       <c r="D159" s="26" t="n">
@@ -6171,10 +6167,10 @@
       <c r="A160" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="B160" s="66" t="n">
+      <c r="B160" s="65" t="n">
         <v>10472</v>
       </c>
-      <c r="C160" s="66" t="n">
+      <c r="C160" s="65" t="n">
         <v>10963</v>
       </c>
       <c r="D160" s="26" t="n">
@@ -6191,10 +6187,10 @@
       <c r="A161" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B161" s="66" t="n">
+      <c r="B161" s="65" t="n">
         <v>109812</v>
       </c>
-      <c r="C161" s="66" t="n">
+      <c r="C161" s="65" t="n">
         <v>110446</v>
       </c>
       <c r="D161" s="26" t="n">
@@ -6211,10 +6207,10 @@
       <c r="A162" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B162" s="66" t="n">
+      <c r="B162" s="65" t="n">
         <v>257665</v>
       </c>
-      <c r="C162" s="66" t="n">
+      <c r="C162" s="65" t="n">
         <v>259728</v>
       </c>
       <c r="D162" s="26" t="n">
@@ -6231,10 +6227,10 @@
       <c r="A163" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="B163" s="66" t="n">
+      <c r="B163" s="65" t="n">
         <v>70329</v>
       </c>
-      <c r="C163" s="66" t="n">
+      <c r="C163" s="65" t="n">
         <v>71938</v>
       </c>
       <c r="D163" s="26" t="n">
@@ -6251,10 +6247,10 @@
       <c r="A164" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="B164" s="66" t="n">
+      <c r="B164" s="65" t="n">
         <v>4202</v>
       </c>
-      <c r="C164" s="66" t="n">
+      <c r="C164" s="65" t="n">
         <v>4706</v>
       </c>
       <c r="D164" s="37" t="n">
@@ -6271,10 +6267,10 @@
       <c r="A165" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="B165" s="66" t="n">
+      <c r="B165" s="65" t="n">
         <v>13858</v>
       </c>
-      <c r="C165" s="66" t="n">
+      <c r="C165" s="65" t="n">
         <v>13911</v>
       </c>
       <c r="D165" s="37" t="n">
@@ -6291,10 +6287,10 @@
       <c r="A166" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B166" s="66" t="n">
+      <c r="B166" s="65" t="n">
         <v>6544</v>
       </c>
-      <c r="C166" s="66" t="n">
+      <c r="C166" s="65" t="n">
         <v>6544</v>
       </c>
       <c r="D166" s="37" t="n">
@@ -6368,7 +6364,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="68" t="s">
+      <c r="A170" s="67" t="s">
         <v>405</v>
       </c>
       <c r="B170" s="37" t="n">
@@ -6388,19 +6384,19 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="70" t="s">
+      <c r="A171" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="B171" s="71" t="n">
+      <c r="B171" s="70" t="n">
         <v>116620</v>
       </c>
-      <c r="C171" s="71" t="n">
+      <c r="C171" s="70" t="n">
         <v>119850</v>
       </c>
-      <c r="D171" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="61" t="n">
+      <c r="D171" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="16" t="n">
         <v>3855</v>
       </c>
       <c r="F171" s="17" t="s">
@@ -6411,16 +6407,16 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="70" t="s">
+      <c r="A172" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="B172" s="71" t="n">
+      <c r="B172" s="70" t="n">
         <v>50728</v>
       </c>
-      <c r="C172" s="71" t="n">
+      <c r="C172" s="70" t="n">
         <v>51110</v>
       </c>
-      <c r="D172" s="71" t="n">
+      <c r="D172" s="70" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="20" t="s">
@@ -6534,7 +6530,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="72" t="s">
+      <c r="A178" s="71" t="s">
         <v>426</v>
       </c>
       <c r="B178" s="37" t="n">
@@ -6557,7 +6553,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="72" t="s">
+      <c r="A179" s="71" t="s">
         <v>426</v>
       </c>
       <c r="B179" s="37" t="n">
@@ -6783,10 +6779,10 @@
       <c r="A190" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="B190" s="73" t="n">
+      <c r="B190" s="72" t="n">
         <v>66445</v>
       </c>
-      <c r="C190" s="73" t="n">
+      <c r="C190" s="72" t="n">
         <v>66445</v>
       </c>
       <c r="D190" s="37" t="n">
@@ -7000,7 +6996,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="70" t="s">
+      <c r="A201" s="69" t="s">
         <v>494</v>
       </c>
       <c r="B201" s="25" t="n">
@@ -7023,7 +7019,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="70" t="s">
+      <c r="A202" s="69" t="s">
         <v>494</v>
       </c>
       <c r="B202" s="25" t="n">
@@ -7085,6 +7081,16 @@
         <v>503</v>
       </c>
     </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2923,11 +2923,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E204" activeCellId="0" sqref="E204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -4341,6 +4341,9 @@
       <c r="F69" s="17" t="s">
         <v>153</v>
       </c>
+      <c r="G69" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="s">
@@ -4686,6 +4689,9 @@
       </c>
       <c r="F86" s="17" t="s">
         <v>199</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2923,11 +2923,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -4570,6 +4570,9 @@
       <c r="F80" s="17" t="s">
         <v>184</v>
       </c>
+      <c r="G80" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
@@ -5558,6 +5561,9 @@
       </c>
       <c r="F129" s="5" t="s">
         <v>314</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2927,7 +2927,7 @@
       <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>

--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2923,11 +2923,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G130" activeCellId="0" sqref="G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -5382,6 +5382,9 @@
       <c r="F120" s="53" t="s">
         <v>292</v>
       </c>
+      <c r="G120" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="52" t="s">
@@ -5584,6 +5587,9 @@
       </c>
       <c r="F130" s="5" t="s">
         <v>316</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/databases/xlsx/import 2021 05 май TMP.xlsx
+++ b/databases/xlsx/import 2021 05 май TMP.xlsx
@@ -2924,10 +2924,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G130" activeCellId="0" sqref="G130"/>
+      <selection pane="topLeft" activeCell="G135" activeCellId="0" sqref="G135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
@@ -5671,6 +5671,9 @@
       <c r="F134" s="5" t="s">
         <v>326</v>
       </c>
+      <c r="G134" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
@@ -5710,6 +5713,9 @@
       </c>
       <c r="F136" s="5" t="s">
         <v>330</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
